--- a/data/trans_camb/P8_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,47</t>
+          <t>-2,42; 6,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,04</t>
+          <t>-3,06; 4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,33</t>
+          <t>-5,43; 1,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 2,51</t>
+          <t>-8,67; 2,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 2,98</t>
+          <t>-8,61; 2,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,83</t>
+          <t>-7,42; 2,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,2</t>
+          <t>-3,31; 3,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,81</t>
+          <t>-3,9; 2,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,82</t>
+          <t>-5,25; 0,78</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 85,35</t>
+          <t>-22,41; 91,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 66,19</t>
+          <t>-27,72; 67,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 19,86</t>
+          <t>-49,04; 23,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 21,68</t>
+          <t>-48,7; 21,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,38; 28,07</t>
+          <t>-49,24; 21,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 15,99</t>
+          <t>-40,59; 22,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 32,1</t>
+          <t>-25,3; 37,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 28,47</t>
+          <t>-29,93; 25,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 8,93</t>
+          <t>-38,79; 9,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,41</t>
+          <t>3,03; 11,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,67</t>
+          <t>0,87; 8,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,96</t>
+          <t>2,36; 10,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 9,1</t>
+          <t>0,92; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,0</t>
+          <t>0,61; 9,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,96</t>
+          <t>5,04; 12,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,2</t>
+          <t>2,89; 9,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,79</t>
+          <t>1,7; 7,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,2</t>
+          <t>4,45; 10,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 320,12</t>
+          <t>33,17; 283,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 240,89</t>
+          <t>11,01; 239,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 275,27</t>
+          <t>32,44; 271,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 218,75</t>
+          <t>8,27; 220,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 207,08</t>
+          <t>4,46; 215,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,71; 285,31</t>
+          <t>61,6; 307,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,62; 214,17</t>
+          <t>39,5; 203,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 181,2</t>
+          <t>22,67; 168,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,24; 253,46</t>
+          <t>64,32; 239,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 9,76</t>
+          <t>0,81; 9,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,2</t>
+          <t>-1,09; 7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 67,88</t>
+          <t>4,24; 70,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 9,33</t>
+          <t>-8,45; 9,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,41</t>
+          <t>-10,12; 9,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 12,24</t>
+          <t>-4,97; 12,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 8,69</t>
+          <t>0,93; 8,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,47</t>
+          <t>-1,64; 6,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 63,11</t>
+          <t>4,05; 60,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 96,87</t>
+          <t>6,36; 99,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 72,29</t>
+          <t>-7,91; 71,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,5; 755,34</t>
+          <t>33,75; 697,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 49,87</t>
+          <t>-29,14; 48,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 56,99</t>
+          <t>-34,71; 49,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 65,4</t>
+          <t>-17,52; 63,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 68,42</t>
+          <t>5,01; 67,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 50,74</t>
+          <t>-10,05; 48,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,57; 469,0</t>
+          <t>28,66; 489,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,31</t>
+          <t>-0,41; 5,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,94</t>
+          <t>-1,8; 4,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,73</t>
+          <t>0,99; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,38</t>
+          <t>-6,84; 1,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,89</t>
+          <t>-5,68; 1,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -1,34</t>
+          <t>-13,5; -1,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,81</t>
+          <t>-1,79; 2,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,28</t>
+          <t>-2,39; 2,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,55</t>
+          <t>-5,13; 2,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 40,38</t>
+          <t>-2,56; 42,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 28,53</t>
+          <t>-11,44; 31,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 51,28</t>
+          <t>6,01; 53,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 8,26</t>
+          <t>-33,24; 6,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 11,38</t>
+          <t>-27,53; 12,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,58; -8,49</t>
+          <t>-67,82; -8,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 18,72</t>
+          <t>-10,2; 20,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 15,22</t>
+          <t>-13,62; 14,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 16,12</t>
+          <t>-29,82; 15,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,05</t>
+          <t>-1,64; 8,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,53</t>
+          <t>1,32; 10,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,29</t>
+          <t>1,35; 11,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 18,06</t>
+          <t>8,63; 18,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,57; 13,25</t>
+          <t>4,22; 13,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 11,38</t>
+          <t>-1,69; 11,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,98</t>
+          <t>5,37; 12,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,46</t>
+          <t>3,47; 10,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,42</t>
+          <t>1,67; 10,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 68,68</t>
+          <t>-10,92; 71,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,05; 89,42</t>
+          <t>7,69; 92,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,6; 109,62</t>
+          <t>8,98; 102,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,97; 103,91</t>
+          <t>38,33; 108,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,19; 77,58</t>
+          <t>18,51; 78,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 64,71</t>
+          <t>-6,36; 62,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,09; 83,6</t>
+          <t>26,26; 80,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,76; 65,74</t>
+          <t>18,18; 66,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,39; 65,14</t>
+          <t>9,16; 62,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,31</t>
+          <t>-1,71; 4,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,07</t>
+          <t>-2,8; 2,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,26</t>
+          <t>-3,26; 1,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,13</t>
+          <t>0,85; 8,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,31</t>
+          <t>-3,3; 4,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,77</t>
+          <t>-2,17; 5,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,29</t>
+          <t>0,6; 7,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,1</t>
+          <t>-3,84; 2,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,31</t>
+          <t>-3,4; 3,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 277,26</t>
+          <t>-56,6; 275,09</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-76,99; 160,44</t>
+          <t>-77,28; 163,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,41; 114,77</t>
+          <t>-82,57; 121,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,85; 32,89</t>
+          <t>2,75; 30,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 15,83</t>
+          <t>-10,68; 16,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 20,61</t>
+          <t>-6,74; 21,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,44; 32,57</t>
+          <t>2,34; 31,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 13,42</t>
+          <t>-14,72; 12,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 14,59</t>
+          <t>-13,25; 13,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,06</t>
+          <t>1,76; 5,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,35</t>
+          <t>1,12; 4,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,77; 28,66</t>
+          <t>2,82; 27,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,85</t>
+          <t>1,77; 5,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,24</t>
+          <t>-0,95; 3,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,65</t>
+          <t>-4,39; 1,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,13</t>
+          <t>2,2; 5,02</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,46</t>
+          <t>0,65; 3,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 14,7</t>
+          <t>0,96; 16,68</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,91; 48,82</t>
+          <t>15,14; 50,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,02; 41,92</t>
+          <t>9,26; 43,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>24,34; 270,59</t>
+          <t>24,76; 245,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,88; 28,79</t>
+          <t>7,93; 29,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 16,18</t>
+          <t>-4,09; 15,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 7,83</t>
+          <t>-20,24; 7,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>14,11; 32,66</t>
+          <t>12,94; 31,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,3; 22,41</t>
+          <t>3,66; 20,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,57; 95,36</t>
+          <t>5,72; 103,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
